--- a/src/main/webapp/WEB-INF/publicResources/client/template/Template_example.xlsx
+++ b/src/main/webapp/WEB-INF/publicResources/client/template/Template_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bfcjo\Universiteit\Module 4.2\project\shotmaniacs\src\main\webapp\WEB-INF\publicResources\client\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5ED6C5-650C-4820-B902-0D24D05DBD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2BBAE-58A6-490E-AC87-5C1491248125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="9">
-        <v>12</v>
+        <v>36537</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
